--- a/Output/Other/Other_Adk_parcel_tax.xlsx
+++ b/Output/Other/Other_Adk_parcel_tax.xlsx
@@ -2248,61 +2248,61 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>7.66</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>7.6567604</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2">
-        <v>8764.20549</v>
+        <v>65428.87002</v>
       </c>
       <c r="H2">
-        <v>17202.65996</v>
+        <v>332732.82696</v>
       </c>
       <c r="I2">
-        <v>22935.38109</v>
+        <v>411854.4990299999</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.000117073701527453</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.302147362490585E-05</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.859880131949715E-05</v>
       </c>
       <c r="M2">
-        <v>31.603</v>
+        <v>46.71</v>
       </c>
       <c r="N2">
-        <v>82826.60000000001</v>
+        <v>8346047.4</v>
       </c>
       <c r="O2">
-        <v>4454</v>
+        <v>229313</v>
       </c>
       <c r="P2">
-        <v>4454</v>
+        <v>229313</v>
       </c>
       <c r="Q2">
-        <v>4229</v>
+        <v>211258</v>
       </c>
       <c r="R2">
-        <v>225</v>
+        <v>18055</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>3.340412449359609E-05</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>9.177997239747284E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2319,19 +2319,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3">
-        <v>17482.144</v>
+        <v>8764.20549</v>
       </c>
       <c r="H3">
-        <v>141033.3272</v>
+        <v>17202.65996</v>
       </c>
       <c r="I3">
-        <v>160375.1682</v>
+        <v>22935.38109</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2343,22 +2343,22 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>33.263</v>
+        <v>31.603</v>
       </c>
       <c r="N3">
-        <v>541872.5</v>
+        <v>82826.60000000001</v>
       </c>
       <c r="O3">
-        <v>26456</v>
+        <v>4454</v>
       </c>
       <c r="P3">
-        <v>26456</v>
+        <v>4454</v>
       </c>
       <c r="Q3">
-        <v>25545</v>
+        <v>4229</v>
       </c>
       <c r="R3">
-        <v>911</v>
+        <v>225</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -2372,61 +2372,61 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4">
-        <v>7.66</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>7.6567604</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4">
-        <v>65428.87002</v>
+        <v>17482.144</v>
       </c>
       <c r="H4">
-        <v>332732.82696</v>
+        <v>141033.3272</v>
       </c>
       <c r="I4">
-        <v>411854.4990299999</v>
+        <v>160375.1682</v>
       </c>
       <c r="J4">
-        <v>0.000117073701527453</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2.302147362490585E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.859880131949715E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>46.71</v>
+        <v>33.263</v>
       </c>
       <c r="N4">
-        <v>8346047.4</v>
+        <v>541872.5</v>
       </c>
       <c r="O4">
-        <v>229313</v>
+        <v>26456</v>
       </c>
       <c r="P4">
-        <v>229313</v>
+        <v>26456</v>
       </c>
       <c r="Q4">
-        <v>211258</v>
+        <v>25545</v>
       </c>
       <c r="R4">
-        <v>18055</v>
+        <v>911</v>
       </c>
       <c r="S4">
-        <v>3.340412449359609E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>9.177997239747284E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20">
